--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slitrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slitrk3-Ptprs.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.213949</v>
+        <v>0.4189265</v>
       </c>
       <c r="H2">
-        <v>0.4278979999999999</v>
+        <v>0.837853</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N2">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q2">
-        <v>0.7603213657244999</v>
+        <v>1.7998913148805</v>
       </c>
       <c r="R2">
-        <v>3.041285462898</v>
+        <v>7.199565259521998</v>
       </c>
       <c r="S2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="T2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.213949</v>
+        <v>0.4189265</v>
       </c>
       <c r="H3">
-        <v>0.4278979999999999</v>
+        <v>0.837853</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q3">
-        <v>2.850919276688333</v>
+        <v>5.582291267384166</v>
       </c>
       <c r="R3">
-        <v>17.10551566013</v>
+        <v>33.493747604305</v>
       </c>
       <c r="S3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="T3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.213949</v>
+        <v>0.4189265</v>
       </c>
       <c r="H4">
-        <v>0.4278979999999999</v>
+        <v>0.837853</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N4">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q4">
-        <v>1.501481459009</v>
+        <v>2.886608858985</v>
       </c>
       <c r="R4">
-        <v>9.008888754053999</v>
+        <v>17.31965315391</v>
       </c>
       <c r="S4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="T4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.213949</v>
+        <v>0.4189265</v>
       </c>
       <c r="H5">
-        <v>0.4278979999999999</v>
+        <v>0.837853</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N5">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q5">
-        <v>4.3676748044145</v>
+        <v>7.653624402054749</v>
       </c>
       <c r="R5">
-        <v>17.470699217658</v>
+        <v>30.614497608219</v>
       </c>
       <c r="S5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="T5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.213949</v>
+        <v>0.4189265</v>
       </c>
       <c r="H6">
-        <v>0.4278979999999999</v>
+        <v>0.837853</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N6">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q6">
-        <v>0.514901216646</v>
+        <v>0.567880844193</v>
       </c>
       <c r="R6">
-        <v>3.089407299876</v>
+        <v>3.407285065158</v>
       </c>
       <c r="S6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="T6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.213949</v>
+        <v>0.4189265</v>
       </c>
       <c r="H7">
-        <v>0.4278979999999999</v>
+        <v>0.837853</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N7">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q7">
-        <v>2.349627641197666</v>
+        <v>2.110192128420833</v>
       </c>
       <c r="R7">
-        <v>14.097765847186</v>
+        <v>12.661152770525</v>
       </c>
       <c r="S7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="T7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
     </row>
   </sheetData>
